--- a/Assessment_quality_llm_outcome/PromptOutcomes_EvaluationMetrics/[ChatGPT]Outcome Quality Assessment Composed Metrics/QACM_C_EverydayLifeSituations.xlsx
+++ b/Assessment_quality_llm_outcome/PromptOutcomes_EvaluationMetrics/[ChatGPT]Outcome Quality Assessment Composed Metrics/QACM_C_EverydayLifeSituations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Blaz\Fakultet\DigiLing1.2\obdelava_naravnega_jezika\projekt\ul-fri-nlp-course-project-parlay\Assessment_quality_llm_outcome\PromptOutcomes_EvaluationMetrics\[ChatGPT]Outcome Quality Assessment Composed Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F39A2D3-2219-424C-8683-6FACB8754265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA11ADE6-54D2-4B9D-9D8D-BC4507DC5DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,12 +829,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,6 +842,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -1068,8 +1068,8 @@
   </sheetPr>
   <dimension ref="A1:J203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E23"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B198" sqref="B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1095,10 +1095,10 @@
       <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61"/>
+      <c r="E1" s="55"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1113,10 +1113,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="37"/>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1132,8 +1132,8 @@
       <c r="C3" s="40">
         <v>2.5</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1145,10 +1145,10 @@
       <c r="C4" s="4">
         <v>0.83</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1160,10 +1160,10 @@
       <c r="C5" s="4">
         <v>0.83</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="56"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
@@ -1175,10 +1175,10 @@
       <c r="C6" s="9">
         <v>0.83</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="58"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
@@ -1190,8 +1190,8 @@
       <c r="C7" s="40">
         <v>2.5</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1203,10 +1203,10 @@
       <c r="C8" s="4">
         <v>0.5</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="56"/>
+      <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1218,10 +1218,10 @@
       <c r="C9" s="4">
         <v>0.5</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="63"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1233,10 +1233,10 @@
       <c r="C10" s="4">
         <v>0.5</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="63"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1248,10 +1248,10 @@
       <c r="C11" s="4">
         <v>0.5</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
@@ -1263,10 +1263,10 @@
       <c r="C12" s="9">
         <v>0.5</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
@@ -1278,8 +1278,8 @@
       <c r="C13" s="40">
         <v>5</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1291,10 +1291,10 @@
       <c r="C14" s="4">
         <v>1.5</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="56"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -1306,10 +1306,10 @@
       <c r="C15" s="4">
         <v>1.5</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -1321,10 +1321,10 @@
       <c r="C16" s="4">
         <v>1.5</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="63"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
@@ -1336,10 +1336,10 @@
       <c r="C17" s="9">
         <v>0.5</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="65"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1363,20 +1363,20 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1420,13 +1420,15 @@
       <c r="B27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="45">
+        <v>4</v>
+      </c>
       <c r="D27" s="22">
         <v>0.83</v>
       </c>
       <c r="E27" s="15">
         <f>C27 * D27</f>
-        <v>0</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1434,13 +1436,15 @@
       <c r="B28" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="46">
+        <v>5</v>
+      </c>
       <c r="D28" s="23">
         <v>0.84</v>
       </c>
       <c r="E28" s="12">
         <f>C28 * D28</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1448,13 +1452,15 @@
       <c r="B29" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="47">
+        <v>3</v>
+      </c>
       <c r="D29" s="24">
         <v>0.83</v>
       </c>
       <c r="E29" s="9">
         <f>C29 * D27</f>
-        <v>0</v>
+        <v>2.4899999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1473,13 +1479,15 @@
       <c r="B31" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="45"/>
+      <c r="C31" s="45">
+        <v>5</v>
+      </c>
       <c r="D31" s="22">
         <v>0.5</v>
       </c>
       <c r="E31" s="15">
         <f>C31 * D31</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1487,13 +1495,15 @@
       <c r="B32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="46">
+        <v>5</v>
+      </c>
       <c r="D32" s="23">
         <v>0.5</v>
       </c>
       <c r="E32" s="12">
         <f>C32 * D31</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1501,13 +1511,15 @@
       <c r="B33" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="48"/>
+      <c r="C33" s="48">
+        <v>4</v>
+      </c>
       <c r="D33" s="25">
         <v>0.5</v>
       </c>
       <c r="E33" s="18">
         <f>C33 * D31</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1515,13 +1527,15 @@
       <c r="B34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="46"/>
+      <c r="C34" s="46">
+        <v>5</v>
+      </c>
       <c r="D34" s="23">
         <v>0.5</v>
       </c>
       <c r="E34" s="12">
         <f>C34 * D31</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1529,13 +1543,15 @@
       <c r="B35" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="47"/>
+      <c r="C35" s="47">
+        <v>5</v>
+      </c>
       <c r="D35" s="24">
         <v>0.5</v>
       </c>
       <c r="E35" s="9">
         <f>C35 * D31</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1554,13 +1570,15 @@
       <c r="B37" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="45"/>
+      <c r="C37" s="45">
+        <v>5</v>
+      </c>
       <c r="D37" s="22">
         <v>1.5</v>
       </c>
       <c r="E37" s="15">
         <f>C37 * D37</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1568,13 +1586,15 @@
       <c r="B38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="46"/>
+      <c r="C38" s="46">
+        <v>4</v>
+      </c>
       <c r="D38" s="23">
         <v>1.5</v>
       </c>
       <c r="E38" s="12">
         <f>C38 * D37</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1582,13 +1602,15 @@
       <c r="B39" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="48"/>
+      <c r="C39" s="48">
+        <v>1</v>
+      </c>
       <c r="D39" s="25">
         <v>1.5</v>
       </c>
       <c r="E39" s="18">
         <f>C39 * D37</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1596,13 +1618,15 @@
       <c r="B40" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="46">
+        <v>3</v>
+      </c>
       <c r="D40" s="23">
         <v>0.5</v>
       </c>
       <c r="E40" s="12">
         <f>C40 * D40</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1616,7 +1640,7 @@
       <c r="D41" s="54"/>
       <c r="E41" s="30">
         <f>SUM(E27,E28,E29,E31,IMPRODUCt,E33,E34,E35,E37,E38,E39,E40)</f>
-        <v>0</v>
+        <v>38.51</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1661,13 +1685,15 @@
       <c r="B45" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="45"/>
+      <c r="C45" s="45">
+        <v>4</v>
+      </c>
       <c r="D45" s="22">
         <v>0.83</v>
       </c>
       <c r="E45" s="15">
         <f>C45 * D45</f>
-        <v>0</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1675,13 +1701,15 @@
       <c r="B46" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="46"/>
+      <c r="C46" s="46">
+        <v>5</v>
+      </c>
       <c r="D46" s="23">
         <v>0.84</v>
       </c>
       <c r="E46" s="12">
         <f>C46 * D46</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1689,13 +1717,15 @@
       <c r="B47" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="47"/>
+      <c r="C47" s="47">
+        <v>4</v>
+      </c>
       <c r="D47" s="24">
         <v>0.83</v>
       </c>
       <c r="E47" s="9">
         <f>C47 * D45</f>
-        <v>0</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1714,13 +1744,15 @@
       <c r="B49" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="45"/>
+      <c r="C49" s="45">
+        <v>5</v>
+      </c>
       <c r="D49" s="22">
         <v>0.5</v>
       </c>
       <c r="E49" s="15">
         <f>C49 * D49</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1728,13 +1760,15 @@
       <c r="B50" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="46"/>
+      <c r="C50" s="46">
+        <v>5</v>
+      </c>
       <c r="D50" s="23">
         <v>0.5</v>
       </c>
       <c r="E50" s="12">
         <f>C50 * D49</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1742,13 +1776,15 @@
       <c r="B51" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="48"/>
+      <c r="C51" s="48">
+        <v>3</v>
+      </c>
       <c r="D51" s="25">
         <v>0.5</v>
       </c>
       <c r="E51" s="18">
         <f>C51 * D49</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1756,13 +1792,15 @@
       <c r="B52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="46"/>
+      <c r="C52" s="46">
+        <v>5</v>
+      </c>
       <c r="D52" s="23">
         <v>0.5</v>
       </c>
       <c r="E52" s="12">
         <f>C52 * D49</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1770,13 +1808,15 @@
       <c r="B53" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="47"/>
+      <c r="C53" s="47">
+        <v>5</v>
+      </c>
       <c r="D53" s="24">
         <v>0.5</v>
       </c>
       <c r="E53" s="9">
         <f>C53 * D49</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1795,13 +1835,15 @@
       <c r="B55" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C55" s="45"/>
+      <c r="C55" s="45">
+        <v>4</v>
+      </c>
       <c r="D55" s="22">
         <v>1.5</v>
       </c>
       <c r="E55" s="15">
         <f>C55 * D55</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1809,13 +1851,15 @@
       <c r="B56" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="46"/>
+      <c r="C56" s="46">
+        <v>3</v>
+      </c>
       <c r="D56" s="23">
         <v>1.5</v>
       </c>
       <c r="E56" s="12">
         <f>C56 * D55</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1823,13 +1867,15 @@
       <c r="B57" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="48"/>
+      <c r="C57" s="48">
+        <v>1</v>
+      </c>
       <c r="D57" s="25">
         <v>1.5</v>
       </c>
       <c r="E57" s="18">
         <f>C57 * D55</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1837,13 +1883,15 @@
       <c r="B58" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="46"/>
+      <c r="C58" s="46">
+        <v>3</v>
+      </c>
       <c r="D58" s="23">
         <v>0.5</v>
       </c>
       <c r="E58" s="12">
         <f>C58 * D58</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1857,7 +1905,7 @@
       <c r="D59" s="54"/>
       <c r="E59" s="30">
         <f>SUM(E45,E46,E47,E49,IMPRODUCt,E51,E52,E53,E55,E56,E57,E58)</f>
-        <v>0</v>
+        <v>35.840000000000003</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1895,13 +1943,15 @@
       <c r="B63" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="45"/>
+      <c r="C63" s="45">
+        <v>5</v>
+      </c>
       <c r="D63" s="22">
         <v>0.83</v>
       </c>
       <c r="E63" s="15">
         <f>C63 * D63</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1909,13 +1959,15 @@
       <c r="B64" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="46"/>
+      <c r="C64" s="46">
+        <v>5</v>
+      </c>
       <c r="D64" s="23">
         <v>0.84</v>
       </c>
       <c r="E64" s="12">
         <f>C64 * D64</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1923,13 +1975,15 @@
       <c r="B65" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="47"/>
+      <c r="C65" s="47">
+        <v>4</v>
+      </c>
       <c r="D65" s="24">
         <v>0.83</v>
       </c>
       <c r="E65" s="9">
         <f>C65 * D63</f>
-        <v>0</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -1948,13 +2002,15 @@
       <c r="B67" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="45"/>
+      <c r="C67" s="45">
+        <v>4</v>
+      </c>
       <c r="D67" s="22">
         <v>0.5</v>
       </c>
       <c r="E67" s="15">
         <f>C67 * D67</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1962,13 +2018,15 @@
       <c r="B68" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="46"/>
+      <c r="C68" s="46">
+        <v>5</v>
+      </c>
       <c r="D68" s="23">
         <v>0.5</v>
       </c>
       <c r="E68" s="12">
         <f>C68 * D67</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1976,13 +2034,15 @@
       <c r="B69" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="48"/>
+      <c r="C69" s="48">
+        <v>3</v>
+      </c>
       <c r="D69" s="25">
         <v>0.5</v>
       </c>
       <c r="E69" s="18">
         <f>C69 * D67</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1990,13 +2050,15 @@
       <c r="B70" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="46"/>
+      <c r="C70" s="46">
+        <v>5</v>
+      </c>
       <c r="D70" s="23">
         <v>0.5</v>
       </c>
       <c r="E70" s="12">
         <f>C70 * D67</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2004,13 +2066,15 @@
       <c r="B71" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="47"/>
+      <c r="C71" s="47">
+        <v>5</v>
+      </c>
       <c r="D71" s="24">
         <v>0.5</v>
       </c>
       <c r="E71" s="9">
         <f>C71 * D67</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2029,13 +2093,15 @@
       <c r="B73" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="45"/>
+      <c r="C73" s="45">
+        <v>4</v>
+      </c>
       <c r="D73" s="22">
         <v>1.5</v>
       </c>
       <c r="E73" s="15">
         <f>C73 * D73</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2043,13 +2109,15 @@
       <c r="B74" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="46"/>
+      <c r="C74" s="46">
+        <v>5</v>
+      </c>
       <c r="D74" s="23">
         <v>1.5</v>
       </c>
       <c r="E74" s="12">
         <f>C74 * D73</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2057,13 +2125,15 @@
       <c r="B75" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="48"/>
+      <c r="C75" s="48">
+        <v>4</v>
+      </c>
       <c r="D75" s="25">
         <v>1.5</v>
       </c>
       <c r="E75" s="18">
         <f>C75 * D73</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2071,13 +2141,15 @@
       <c r="B76" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C76" s="46"/>
+      <c r="C76" s="46">
+        <v>5</v>
+      </c>
       <c r="D76" s="23">
         <v>0.5</v>
       </c>
       <c r="E76" s="12">
         <f>C76 * D76</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2091,7 +2163,7 @@
       <c r="D77" s="54"/>
       <c r="E77" s="30">
         <f>SUM(E63,E64,E65,E67,IMPRODUCt,E69,E70,E71,E73,E74,E75,E76)</f>
-        <v>0</v>
+        <v>44.67</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2129,13 +2201,15 @@
       <c r="B81" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C81" s="45"/>
+      <c r="C81" s="45">
+        <v>5</v>
+      </c>
       <c r="D81" s="22">
         <v>0.83</v>
       </c>
       <c r="E81" s="15">
         <f>C81 * D81</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2143,13 +2217,15 @@
       <c r="B82" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="46"/>
+      <c r="C82" s="46">
+        <v>5</v>
+      </c>
       <c r="D82" s="23">
         <v>0.84</v>
       </c>
       <c r="E82" s="12">
         <f>C82 * D82</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2157,13 +2233,15 @@
       <c r="B83" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="47"/>
+      <c r="C83" s="47">
+        <v>5</v>
+      </c>
       <c r="D83" s="24">
         <v>0.83</v>
       </c>
       <c r="E83" s="9">
         <f>C83 * D81</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2182,13 +2260,15 @@
       <c r="B85" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="45"/>
+      <c r="C85" s="45">
+        <v>4</v>
+      </c>
       <c r="D85" s="22">
         <v>0.5</v>
       </c>
       <c r="E85" s="15">
         <f>C85 * D85</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2196,13 +2276,15 @@
       <c r="B86" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="46"/>
+      <c r="C86" s="46">
+        <v>5</v>
+      </c>
       <c r="D86" s="23">
         <v>0.5</v>
       </c>
       <c r="E86" s="12">
         <f>C86 * D85</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2210,13 +2292,15 @@
       <c r="B87" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C87" s="48"/>
+      <c r="C87" s="48">
+        <v>3</v>
+      </c>
       <c r="D87" s="25">
         <v>0.5</v>
       </c>
       <c r="E87" s="18">
         <f>C87 * D85</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2224,13 +2308,15 @@
       <c r="B88" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C88" s="46"/>
+      <c r="C88" s="46">
+        <v>5</v>
+      </c>
       <c r="D88" s="23">
         <v>0.5</v>
       </c>
       <c r="E88" s="12">
         <f>C88 * D85</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2238,13 +2324,15 @@
       <c r="B89" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="47"/>
+      <c r="C89" s="47">
+        <v>5</v>
+      </c>
       <c r="D89" s="24">
         <v>0.5</v>
       </c>
       <c r="E89" s="9">
         <f>C89 * D85</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2263,13 +2351,15 @@
       <c r="B91" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="45"/>
+      <c r="C91" s="45">
+        <v>4</v>
+      </c>
       <c r="D91" s="22">
         <v>1.5</v>
       </c>
       <c r="E91" s="15">
         <f>C91 * D91</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2277,13 +2367,15 @@
       <c r="B92" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="46"/>
+      <c r="C92" s="46">
+        <v>4</v>
+      </c>
       <c r="D92" s="23">
         <v>1.5</v>
       </c>
       <c r="E92" s="12">
         <f>C92 * D91</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2291,13 +2383,15 @@
       <c r="B93" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="48"/>
+      <c r="C93" s="48">
+        <v>3</v>
+      </c>
       <c r="D93" s="25">
         <v>1.5</v>
       </c>
       <c r="E93" s="18">
         <f>C93 * D91</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2305,13 +2399,15 @@
       <c r="B94" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="46"/>
+      <c r="C94" s="46">
+        <v>4</v>
+      </c>
       <c r="D94" s="23">
         <v>0.5</v>
       </c>
       <c r="E94" s="12">
         <f>C94 * D94</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2325,7 +2421,7 @@
       <c r="D95" s="54"/>
       <c r="E95" s="30">
         <f>SUM(E81,E82,E83,E85,IMPRODUCt,E87,E88,E89,E91,E92,E93,E94)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2363,13 +2459,15 @@
       <c r="B99" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="45"/>
+      <c r="C99" s="45">
+        <v>5</v>
+      </c>
       <c r="D99" s="22">
         <v>0.83</v>
       </c>
       <c r="E99" s="15">
         <f>C99 * D99</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2377,13 +2475,15 @@
       <c r="B100" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="46"/>
+      <c r="C100" s="46">
+        <v>5</v>
+      </c>
       <c r="D100" s="23">
         <v>0.84</v>
       </c>
       <c r="E100" s="12">
         <f>C100 * D100</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2391,13 +2491,15 @@
       <c r="B101" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="47"/>
+      <c r="C101" s="47">
+        <v>5</v>
+      </c>
       <c r="D101" s="24">
         <v>0.83</v>
       </c>
       <c r="E101" s="9">
         <f>C101 * D99</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2416,13 +2518,15 @@
       <c r="B103" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C103" s="45"/>
+      <c r="C103" s="45">
+        <v>5</v>
+      </c>
       <c r="D103" s="22">
         <v>0.5</v>
       </c>
       <c r="E103" s="15">
         <f>C103 * D103</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2430,13 +2534,15 @@
       <c r="B104" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="46"/>
+      <c r="C104" s="46">
+        <v>5</v>
+      </c>
       <c r="D104" s="23">
         <v>0.5</v>
       </c>
       <c r="E104" s="12">
         <f>C104 * D103</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2444,13 +2550,15 @@
       <c r="B105" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="48"/>
+      <c r="C105" s="48">
+        <v>5</v>
+      </c>
       <c r="D105" s="25">
         <v>0.5</v>
       </c>
       <c r="E105" s="18">
         <f>C105 * D103</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2458,13 +2566,15 @@
       <c r="B106" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C106" s="46"/>
+      <c r="C106" s="46">
+        <v>5</v>
+      </c>
       <c r="D106" s="23">
         <v>0.5</v>
       </c>
       <c r="E106" s="12">
         <f>C106 * D103</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2472,13 +2582,15 @@
       <c r="B107" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="47"/>
+      <c r="C107" s="47">
+        <v>5</v>
+      </c>
       <c r="D107" s="24">
         <v>0.5</v>
       </c>
       <c r="E107" s="9">
         <f>C107 * D103</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2497,13 +2609,15 @@
       <c r="B109" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="45"/>
+      <c r="C109" s="45">
+        <v>3</v>
+      </c>
       <c r="D109" s="22">
         <v>1.5</v>
       </c>
       <c r="E109" s="15">
         <f>C109 * D109</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2511,13 +2625,15 @@
       <c r="B110" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C110" s="46"/>
+      <c r="C110" s="46">
+        <v>5</v>
+      </c>
       <c r="D110" s="23">
         <v>1.5</v>
       </c>
       <c r="E110" s="12">
         <f>C110 * D109</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2525,13 +2641,15 @@
       <c r="B111" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C111" s="48"/>
+      <c r="C111" s="48">
+        <v>4</v>
+      </c>
       <c r="D111" s="25">
         <v>1.5</v>
       </c>
       <c r="E111" s="18">
         <f>C111 * D109</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2539,13 +2657,15 @@
       <c r="B112" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C112" s="46"/>
+      <c r="C112" s="46">
+        <v>4</v>
+      </c>
       <c r="D112" s="23">
         <v>0.5</v>
       </c>
       <c r="E112" s="12">
         <f>C112 * D112</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2559,7 +2679,7 @@
       <c r="D113" s="54"/>
       <c r="E113" s="30">
         <f>SUM(E99,E100,E101,E103,IMPRODUCt,E105,E106,E107,E109,E110,E111,E112)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2597,13 +2717,15 @@
       <c r="B117" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="45"/>
+      <c r="C117" s="45">
+        <v>5</v>
+      </c>
       <c r="D117" s="22">
         <v>0.83</v>
       </c>
       <c r="E117" s="15">
         <f>C117 * D117</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2611,13 +2733,15 @@
       <c r="B118" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="46"/>
+      <c r="C118" s="46">
+        <v>5</v>
+      </c>
       <c r="D118" s="23">
         <v>0.84</v>
       </c>
       <c r="E118" s="12">
         <f>C118 * D118</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2625,13 +2749,15 @@
       <c r="B119" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="47"/>
+      <c r="C119" s="47">
+        <v>5</v>
+      </c>
       <c r="D119" s="24">
         <v>0.83</v>
       </c>
       <c r="E119" s="9">
         <f>C119 * D117</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2650,13 +2776,15 @@
       <c r="B121" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C121" s="45"/>
+      <c r="C121" s="45">
+        <v>5</v>
+      </c>
       <c r="D121" s="22">
         <v>0.5</v>
       </c>
       <c r="E121" s="15">
         <f>C121 * D121</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2664,13 +2792,15 @@
       <c r="B122" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="46"/>
+      <c r="C122" s="46">
+        <v>5</v>
+      </c>
       <c r="D122" s="23">
         <v>0.5</v>
       </c>
       <c r="E122" s="12">
         <f>C122 * D121</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2678,13 +2808,15 @@
       <c r="B123" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="48"/>
+      <c r="C123" s="48">
+        <v>5</v>
+      </c>
       <c r="D123" s="25">
         <v>0.5</v>
       </c>
       <c r="E123" s="18">
         <f>C123 * D121</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2692,13 +2824,15 @@
       <c r="B124" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C124" s="46"/>
+      <c r="C124" s="46">
+        <v>5</v>
+      </c>
       <c r="D124" s="23">
         <v>0.5</v>
       </c>
       <c r="E124" s="12">
         <f>C124 * D121</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2706,13 +2840,15 @@
       <c r="B125" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C125" s="47"/>
+      <c r="C125" s="47">
+        <v>5</v>
+      </c>
       <c r="D125" s="24">
         <v>0.5</v>
       </c>
       <c r="E125" s="9">
         <f>C125 * D121</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2731,13 +2867,15 @@
       <c r="B127" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C127" s="45"/>
+      <c r="C127" s="45">
+        <v>4</v>
+      </c>
       <c r="D127" s="22">
         <v>1.5</v>
       </c>
       <c r="E127" s="15">
         <f>C127 * D127</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2745,13 +2883,15 @@
       <c r="B128" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C128" s="46"/>
+      <c r="C128" s="46">
+        <v>2</v>
+      </c>
       <c r="D128" s="23">
         <v>1.5</v>
       </c>
       <c r="E128" s="12">
         <f>C128 * D127</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2759,13 +2899,15 @@
       <c r="B129" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C129" s="48"/>
+      <c r="C129" s="48">
+        <v>5</v>
+      </c>
       <c r="D129" s="25">
         <v>1.5</v>
       </c>
       <c r="E129" s="18">
         <f>C129 * D127</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2773,13 +2915,15 @@
       <c r="B130" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C130" s="46"/>
+      <c r="C130" s="46">
+        <v>4</v>
+      </c>
       <c r="D130" s="23">
         <v>0.5</v>
       </c>
       <c r="E130" s="12">
         <f>C130 * D130</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2793,7 +2937,7 @@
       <c r="D131" s="54"/>
       <c r="E131" s="30">
         <f>SUM(E117,E118,E119,E121,IMPRODUCt,E123,E124,E125,E127,E128,E129,E130)</f>
-        <v>0</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2831,13 +2975,15 @@
       <c r="B135" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C135" s="45"/>
+      <c r="C135" s="45">
+        <v>5</v>
+      </c>
       <c r="D135" s="22">
         <v>0.83</v>
       </c>
       <c r="E135" s="15">
         <f>C135 * D135</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2845,13 +2991,15 @@
       <c r="B136" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C136" s="46"/>
+      <c r="C136" s="46">
+        <v>5</v>
+      </c>
       <c r="D136" s="23">
         <v>0.84</v>
       </c>
       <c r="E136" s="12">
         <f>C136 * D136</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2859,13 +3007,15 @@
       <c r="B137" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="47"/>
+      <c r="C137" s="47">
+        <v>5</v>
+      </c>
       <c r="D137" s="24">
         <v>0.83</v>
       </c>
       <c r="E137" s="9">
         <f>C137 * D135</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2884,13 +3034,15 @@
       <c r="B139" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="45"/>
+      <c r="C139" s="45">
+        <v>4</v>
+      </c>
       <c r="D139" s="22">
         <v>0.5</v>
       </c>
       <c r="E139" s="15">
         <f>C139 * D139</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2898,13 +3050,15 @@
       <c r="B140" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C140" s="46"/>
+      <c r="C140" s="46">
+        <v>5</v>
+      </c>
       <c r="D140" s="23">
         <v>0.5</v>
       </c>
       <c r="E140" s="12">
         <f>C140 * D139</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2912,13 +3066,15 @@
       <c r="B141" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="48"/>
+      <c r="C141" s="48">
+        <v>4</v>
+      </c>
       <c r="D141" s="25">
         <v>0.5</v>
       </c>
       <c r="E141" s="18">
         <f>C141 * D139</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2926,13 +3082,15 @@
       <c r="B142" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C142" s="46"/>
+      <c r="C142" s="46">
+        <v>5</v>
+      </c>
       <c r="D142" s="23">
         <v>0.5</v>
       </c>
       <c r="E142" s="12">
         <f>C142 * D139</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2940,13 +3098,15 @@
       <c r="B143" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C143" s="47"/>
+      <c r="C143" s="47">
+        <v>5</v>
+      </c>
       <c r="D143" s="24">
         <v>0.5</v>
       </c>
       <c r="E143" s="9">
         <f>C143 * D139</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2965,13 +3125,15 @@
       <c r="B145" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C145" s="45"/>
+      <c r="C145" s="45">
+        <v>4</v>
+      </c>
       <c r="D145" s="22">
         <v>1.5</v>
       </c>
       <c r="E145" s="15">
         <f>C145 * D145</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2979,13 +3141,15 @@
       <c r="B146" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C146" s="46"/>
+      <c r="C146" s="46">
+        <v>3</v>
+      </c>
       <c r="D146" s="23">
         <v>1.5</v>
       </c>
       <c r="E146" s="12">
         <f>C146 * D145</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2993,13 +3157,15 @@
       <c r="B147" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C147" s="48"/>
+      <c r="C147" s="48">
+        <v>4</v>
+      </c>
       <c r="D147" s="25">
         <v>1.5</v>
       </c>
       <c r="E147" s="18">
         <f>C147 * D145</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3007,13 +3173,15 @@
       <c r="B148" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C148" s="46"/>
+      <c r="C148" s="46">
+        <v>4</v>
+      </c>
       <c r="D148" s="23">
         <v>0.5</v>
       </c>
       <c r="E148" s="12">
         <f>C148 * D148</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3027,7 +3195,7 @@
       <c r="D149" s="54"/>
       <c r="E149" s="30">
         <f>SUM(E135,E136,E137,E139,IMPRODUCt,E141,E142,E143,E145,E146,E147,E148)</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3065,13 +3233,15 @@
       <c r="B153" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C153" s="45"/>
+      <c r="C153" s="45">
+        <v>5</v>
+      </c>
       <c r="D153" s="22">
         <v>0.83</v>
       </c>
       <c r="E153" s="15">
         <f>C153 * D153</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3079,13 +3249,15 @@
       <c r="B154" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C154" s="46"/>
+      <c r="C154" s="46">
+        <v>4</v>
+      </c>
       <c r="D154" s="23">
         <v>0.84</v>
       </c>
       <c r="E154" s="12">
         <f>C154 * D154</f>
-        <v>0</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3093,13 +3265,15 @@
       <c r="B155" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="47"/>
+      <c r="C155" s="47">
+        <v>5</v>
+      </c>
       <c r="D155" s="24">
         <v>0.83</v>
       </c>
       <c r="E155" s="9">
         <f>C155 * D153</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3118,13 +3292,15 @@
       <c r="B157" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C157" s="45"/>
+      <c r="C157" s="45">
+        <v>5</v>
+      </c>
       <c r="D157" s="22">
         <v>0.5</v>
       </c>
       <c r="E157" s="15">
         <f>C157 * D157</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3132,13 +3308,15 @@
       <c r="B158" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C158" s="46"/>
+      <c r="C158" s="46">
+        <v>5</v>
+      </c>
       <c r="D158" s="23">
         <v>0.5</v>
       </c>
       <c r="E158" s="12">
         <f>C158 * D157</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3146,13 +3324,15 @@
       <c r="B159" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C159" s="48"/>
+      <c r="C159" s="48">
+        <v>4</v>
+      </c>
       <c r="D159" s="25">
         <v>0.5</v>
       </c>
       <c r="E159" s="18">
         <f>C159 * D157</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3160,13 +3340,15 @@
       <c r="B160" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C160" s="46"/>
+      <c r="C160" s="46">
+        <v>5</v>
+      </c>
       <c r="D160" s="23">
         <v>0.5</v>
       </c>
       <c r="E160" s="12">
         <f>C160 * D157</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3174,13 +3356,15 @@
       <c r="B161" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C161" s="47"/>
+      <c r="C161" s="47">
+        <v>5</v>
+      </c>
       <c r="D161" s="24">
         <v>0.5</v>
       </c>
       <c r="E161" s="9">
         <f>C161 * D157</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3199,13 +3383,15 @@
       <c r="B163" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C163" s="45"/>
+      <c r="C163" s="45">
+        <v>3</v>
+      </c>
       <c r="D163" s="22">
         <v>1.5</v>
       </c>
       <c r="E163" s="15">
         <f>C163 * D163</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3213,13 +3399,15 @@
       <c r="B164" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C164" s="46"/>
+      <c r="C164" s="46">
+        <v>4</v>
+      </c>
       <c r="D164" s="23">
         <v>1.5</v>
       </c>
       <c r="E164" s="12">
         <f>C164 * D163</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3227,13 +3415,15 @@
       <c r="B165" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C165" s="48"/>
+      <c r="C165" s="48">
+        <v>2</v>
+      </c>
       <c r="D165" s="25">
         <v>1.5</v>
       </c>
       <c r="E165" s="18">
         <f>C165 * D163</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3241,13 +3431,15 @@
       <c r="B166" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C166" s="46"/>
+      <c r="C166" s="46">
+        <v>4</v>
+      </c>
       <c r="D166" s="23">
         <v>0.5</v>
       </c>
       <c r="E166" s="12">
         <f>C166 * D166</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3261,7 +3453,7 @@
       <c r="D167" s="54"/>
       <c r="E167" s="30">
         <f>SUM(E153,E154,E155,E157,IMPRODUCt,E159,E160,E161,E163,E164,E165,E166)</f>
-        <v>0</v>
+        <v>39.159999999999997</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3299,13 +3491,15 @@
       <c r="B171" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C171" s="45"/>
+      <c r="C171" s="45">
+        <v>5</v>
+      </c>
       <c r="D171" s="22">
         <v>0.83</v>
       </c>
       <c r="E171" s="15">
         <f>C171 * D171</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3313,13 +3507,15 @@
       <c r="B172" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C172" s="46"/>
+      <c r="C172" s="46">
+        <v>4</v>
+      </c>
       <c r="D172" s="23">
         <v>0.84</v>
       </c>
       <c r="E172" s="12">
         <f>C172 * D172</f>
-        <v>0</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3327,13 +3523,15 @@
       <c r="B173" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="47"/>
+      <c r="C173" s="47">
+        <v>4</v>
+      </c>
       <c r="D173" s="24">
         <v>0.83</v>
       </c>
       <c r="E173" s="9">
         <f>C173 * D171</f>
-        <v>0</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3352,13 +3550,15 @@
       <c r="B175" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C175" s="45"/>
+      <c r="C175" s="45">
+        <v>5</v>
+      </c>
       <c r="D175" s="22">
         <v>0.5</v>
       </c>
       <c r="E175" s="15">
         <f>C175 * D175</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3366,13 +3566,15 @@
       <c r="B176" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C176" s="46"/>
+      <c r="C176" s="46">
+        <v>5</v>
+      </c>
       <c r="D176" s="23">
         <v>0.5</v>
       </c>
       <c r="E176" s="12">
         <f>C176 * D175</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3380,13 +3582,15 @@
       <c r="B177" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C177" s="48"/>
+      <c r="C177" s="48">
+        <v>4</v>
+      </c>
       <c r="D177" s="25">
         <v>0.5</v>
       </c>
       <c r="E177" s="18">
         <f>C177 * D175</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3394,13 +3598,15 @@
       <c r="B178" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C178" s="46"/>
+      <c r="C178" s="46">
+        <v>5</v>
+      </c>
       <c r="D178" s="23">
         <v>0.5</v>
       </c>
       <c r="E178" s="12">
         <f>C178 * D175</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3408,13 +3614,15 @@
       <c r="B179" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C179" s="47"/>
+      <c r="C179" s="47">
+        <v>5</v>
+      </c>
       <c r="D179" s="24">
         <v>0.5</v>
       </c>
       <c r="E179" s="9">
         <f>C179 * D175</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3433,13 +3641,15 @@
       <c r="B181" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C181" s="45"/>
+      <c r="C181" s="45">
+        <v>4</v>
+      </c>
       <c r="D181" s="22">
         <v>1.5</v>
       </c>
       <c r="E181" s="15">
         <f>C181 * D181</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3447,13 +3657,15 @@
       <c r="B182" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C182" s="46"/>
+      <c r="C182" s="46">
+        <v>3</v>
+      </c>
       <c r="D182" s="23">
         <v>1.5</v>
       </c>
       <c r="E182" s="12">
         <f>C182 * D181</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3461,13 +3673,15 @@
       <c r="B183" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C183" s="48"/>
+      <c r="C183" s="48">
+        <v>2</v>
+      </c>
       <c r="D183" s="25">
         <v>1.5</v>
       </c>
       <c r="E183" s="18">
         <f>C183 * D181</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3475,13 +3689,15 @@
       <c r="B184" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C184" s="46"/>
+      <c r="C184" s="46">
+        <v>4</v>
+      </c>
       <c r="D184" s="23">
         <v>0.5</v>
       </c>
       <c r="E184" s="12">
         <f>C184 * D184</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3495,7 +3711,7 @@
       <c r="D185" s="54"/>
       <c r="E185" s="30">
         <f>SUM(E171,E172,E173,E175,IMPRODUCt,E177,E178,E179,E181,E182,E183,E184)</f>
-        <v>0</v>
+        <v>38.33</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3533,13 +3749,15 @@
       <c r="B189" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C189" s="45"/>
+      <c r="C189" s="45">
+        <v>5</v>
+      </c>
       <c r="D189" s="22">
         <v>0.83</v>
       </c>
       <c r="E189" s="15">
         <f>C189 * D189</f>
-        <v>0</v>
+        <v>4.1499999999999995</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3547,13 +3765,15 @@
       <c r="B190" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C190" s="46"/>
+      <c r="C190" s="46">
+        <v>5</v>
+      </c>
       <c r="D190" s="23">
         <v>0.84</v>
       </c>
       <c r="E190" s="12">
         <f>C190 * D190</f>
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3561,13 +3781,15 @@
       <c r="B191" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C191" s="47"/>
+      <c r="C191" s="47">
+        <v>4</v>
+      </c>
       <c r="D191" s="24">
         <v>0.83</v>
       </c>
       <c r="E191" s="9">
         <f>C191 * D189</f>
-        <v>0</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3586,13 +3808,15 @@
       <c r="B193" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C193" s="45"/>
+      <c r="C193" s="45">
+        <v>5</v>
+      </c>
       <c r="D193" s="22">
         <v>0.5</v>
       </c>
       <c r="E193" s="15">
         <f>C193 * D193</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3600,13 +3824,15 @@
       <c r="B194" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C194" s="46"/>
+      <c r="C194" s="46">
+        <v>5</v>
+      </c>
       <c r="D194" s="23">
         <v>0.5</v>
       </c>
       <c r="E194" s="12">
         <f>C194 * D193</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3614,13 +3840,15 @@
       <c r="B195" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C195" s="48"/>
+      <c r="C195" s="48">
+        <v>5</v>
+      </c>
       <c r="D195" s="25">
         <v>0.5</v>
       </c>
       <c r="E195" s="18">
         <f>C195 * D193</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3628,13 +3856,15 @@
       <c r="B196" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C196" s="46"/>
+      <c r="C196" s="46">
+        <v>5</v>
+      </c>
       <c r="D196" s="23">
         <v>0.5</v>
       </c>
       <c r="E196" s="12">
         <f>C196 * D193</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3642,13 +3872,15 @@
       <c r="B197" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C197" s="47"/>
+      <c r="C197" s="47">
+        <v>5</v>
+      </c>
       <c r="D197" s="24">
         <v>0.5</v>
       </c>
       <c r="E197" s="9">
         <f>C197 * D193</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3667,13 +3899,15 @@
       <c r="B199" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C199" s="45"/>
+      <c r="C199" s="45">
+        <v>4</v>
+      </c>
       <c r="D199" s="22">
         <v>1.5</v>
       </c>
       <c r="E199" s="15">
         <f>C199 * D199</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3681,13 +3915,15 @@
       <c r="B200" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C200" s="46"/>
+      <c r="C200" s="46">
+        <v>3</v>
+      </c>
       <c r="D200" s="23">
         <v>1.5</v>
       </c>
       <c r="E200" s="12">
         <f>C200 * D199</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3695,13 +3931,15 @@
       <c r="B201" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C201" s="48"/>
+      <c r="C201" s="48">
+        <v>5</v>
+      </c>
       <c r="D201" s="25">
         <v>1.5</v>
       </c>
       <c r="E201" s="18">
         <f>C201 * D199</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3709,13 +3947,15 @@
       <c r="B202" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C202" s="46"/>
+      <c r="C202" s="46">
+        <v>4</v>
+      </c>
       <c r="D202" s="23">
         <v>0.5</v>
       </c>
       <c r="E202" s="12">
         <f>C202 * D202</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3729,36 +3969,11 @@
       <c r="D203" s="54"/>
       <c r="E203" s="30">
         <f>SUM(E189,E190,E191,E193,IMPRODUCt,E195,E196,E197,E199,E200,E201,E202)</f>
-        <v>0</v>
+        <v>44.17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A170:A185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="A188:A203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="A116:A131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A134:A149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="A152:A167"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="A62:A77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A80:A95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="A44:A59"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="D9:E9"/>
@@ -3772,6 +3987,31 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A62:A77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A80:A95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A170:A185"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="A188:A203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="A116:A131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A134:A149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="A152:A167"/>
+    <mergeCell ref="C167:D167"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
